--- a/example/formulation_2/input/PySedSim_Input_File - Sambor_EA_formulation_2_serial.xlsx
+++ b/example/formulation_2/input/PySedSim_Input_File - Sambor_EA_formulation_2_serial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1980" windowWidth="7140" windowHeight="3585" tabRatio="848" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="4860" yWindow="2040" windowWidth="7140" windowHeight="3525" tabRatio="848" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation Specifications" sheetId="54" r:id="rId1"/>
@@ -20,22 +20,22 @@
     <sheet name="Tailwater Rating Curve" sheetId="80" r:id="rId11"/>
     <sheet name="DPS" sheetId="103" r:id="rId12"/>
     <sheet name="Optimization" sheetId="104" r:id="rId13"/>
-    <sheet name="Reevaluation" sheetId="112" r:id="rId14"/>
-    <sheet name="Max Reservoir WSE" sheetId="105" r:id="rId15"/>
-    <sheet name="Junction Flow Distribution" sheetId="90" r:id="rId16"/>
-    <sheet name="Reservoir Natural Bypass" sheetId="106" r:id="rId17"/>
-    <sheet name="Egg Passage Targets" sheetId="85" r:id="rId18"/>
-    <sheet name="Tradeoff Plotting" sheetId="117" r:id="rId19"/>
-    <sheet name="Parallel Axis Plotting" sheetId="115" r:id="rId20"/>
-    <sheet name="Export Preferences" sheetId="122" r:id="rId21"/>
+    <sheet name="Max Reservoir WSE" sheetId="105" r:id="rId14"/>
+    <sheet name="Junction Flow Distribution" sheetId="90" r:id="rId15"/>
+    <sheet name="Reservoir Natural Bypass" sheetId="106" r:id="rId16"/>
+    <sheet name="Egg Passage Targets" sheetId="85" r:id="rId17"/>
+    <sheet name="Tradeoff Plotting" sheetId="117" r:id="rId18"/>
+    <sheet name="Parallel Axis Plotting" sheetId="115" r:id="rId19"/>
+    <sheet name="Export Preferences" sheetId="122" r:id="rId20"/>
+    <sheet name="Reevaluation" sheetId="123" r:id="rId21"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
-    <definedName name="IncSedLoadCalibrationOptions" localSheetId="13">[1]!Table1[Incremental Sediment Load Calibration Options]</definedName>
+    <definedName name="IncSedLoadCalibrationOptions" localSheetId="20">[1]!Table1[Incremental Sediment Load Calibration Options]</definedName>
     <definedName name="IncSedLoadCalibrationOptions">[1]!Table1[Incremental Sediment Load Calibration Options]</definedName>
-    <definedName name="Sediment_discharge_from_reaches__channels___calibration_preferences_for_determining_coefficient_a__in_aQb" localSheetId="13">[1]!Table2[[#All],[Sediment discharge from reaches (channels): calibration preferences for determining coefficient a (in aQb)]]</definedName>
+    <definedName name="Sediment_discharge_from_reaches__channels___calibration_preferences_for_determining_coefficient_a__in_aQb" localSheetId="20">[1]!Table2[[#All],[Sediment discharge from reaches (channels): calibration preferences for determining coefficient a (in aQb)]]</definedName>
     <definedName name="Sediment_discharge_from_reaches__channels___calibration_preferences_for_determining_coefficient_a__in_aQb">[1]!Table2[[#All],[Sediment discharge from reaches (channels): calibration preferences for determining coefficient a (in aQb)]]</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'E-V-A-S'!#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="342">
   <si>
     <t/>
   </si>
@@ -1421,68 +1421,81 @@
     <t>Hydropower_avg_MWH, water_surface_elevation, Q_in, Q_out, egg_pass, Q_out_under_thold, Q_out_over_thold, Hydropower_avg_MWH_over_thold, Hydropower_avg_MWH_under_thold, larv_surv_over_thold, larv_surv_under_thold, BS_W, capacity_active_reservoir, capacity_dead_reservoir, capacity_total_reservoir, res_flushed_load, SS_W_out, larv_mass_out_surv_total, Settled_mass</t>
   </si>
   <si>
+    <t>larv_pass_over_thold</t>
+  </si>
+  <si>
+    <t>larv_pass_under_thold</t>
+  </si>
+  <si>
     <t>Specify DPS policy</t>
   </si>
   <si>
+    <t>Bypass Flow (m^3 s^-1)</t>
+  </si>
+  <si>
+    <t>Bypass Flow - Dry (m^3 s^-1)</t>
+  </si>
+  <si>
+    <t>Bypass Flow - Dry</t>
+  </si>
+  <si>
+    <t>Bypass Flow - Wet (m^3 s^-1)</t>
+  </si>
+  <si>
+    <t>Bypass Flow - Wet</t>
+  </si>
+  <si>
+    <t>Larvae Flow Fraction</t>
+  </si>
+  <si>
     <t>larv_pass</t>
   </si>
   <si>
-    <t>larv_pass_over_thold</t>
-  </si>
-  <si>
-    <t>Larvae Flow Fraction</t>
-  </si>
-  <si>
     <t>Larvae Flow Fraction-Wet</t>
   </si>
   <si>
+    <t>Larvae Flow Fraction Wet</t>
+  </si>
+  <si>
     <t>Larvae Flow Fraction-Dry</t>
   </si>
   <si>
-    <t>larv_pass_under_thold</t>
-  </si>
-  <si>
-    <t>Larvae Flow Fraction Wet</t>
-  </si>
-  <si>
     <t>Larvae Flow Fraction Dry</t>
   </si>
   <si>
-    <t>Bypass Flow (m^3 s^-1)</t>
-  </si>
-  <si>
-    <t>Bypass Flow - Dry (m^3 s^-1)</t>
-  </si>
-  <si>
-    <t>Bypass Flow - Wet (m^3 s^-1)</t>
-  </si>
-  <si>
-    <t>Bypass Flow - Dry</t>
-  </si>
-  <si>
-    <t>Bypass Flow - Wet</t>
-  </si>
-  <si>
-    <t>52, 22, 18, 42</t>
+    <t>Dry Season Daily Bypass \n Attraction Flow (m^3/s)</t>
+  </si>
+  <si>
+    <t>Dry Season \n Daily Bypass \n Attraction Flow \n (m^3/s)</t>
+  </si>
+  <si>
+    <t>177, 147, 103</t>
+  </si>
+  <si>
+    <t>Energy, Compromise, Larvae</t>
+  </si>
+  <si>
+    <t>Sambor EA</t>
+  </si>
+  <si>
+    <t>Sambor EA, Bypass Channel 1, Stung_Treng, Junction 4</t>
   </si>
   <si>
     <t>Serial</t>
   </si>
   <si>
-    <t>Sambor EA</t>
-  </si>
-  <si>
-    <t>Sambor EA, Bypass Channel 1, Stung_Treng, Junction 4</t>
+    <t>63, 131, 116, 267, 114, 148</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="74" x14ac:knownFonts="1">
     <font>
@@ -4414,7 +4427,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="47"/>
@@ -4800,6 +4813,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="57" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4883,16 +4897,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="81" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="73" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="57" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="81" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="57" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7027,112 +7041,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4914899" y="514350"/>
-          <a:ext cx="6105525" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Here's how I got this:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Organized</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Robert's outputs by flow, so we see the fraction into the reservoir versus total upstream flow versus elevation.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Then, I figured out the TERMINAL (max WSE) point for each flow. That is, the highest the reservoir water level  can get for a given flow. This plots that for every flow. Roberts methods differed for main stem flows above 17,086, so I simply used the trend for the highest flow values to predict the TERMINAL points for the higher flows, which quickly reach 40 masl.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Having done all of that, I then multiplied the total upstream flows by the terminal fraction, so they represent the RESERVOIR inflows, which are needed to be placed in the table here. The terminal fractions of reservoir inflow for high water levels become constant at about 46% at very high flows. (half of the water is getting into the anabranch). Is this a believable percentage? Need to check on this.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7479,7 +7387,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7557,9 +7465,7 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7576,7 +7482,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -7645,9 +7551,7 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7657,7 +7561,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="128" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="127"/>
     </row>
@@ -7873,7 +7777,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7994,10 +7898,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8008,7 +7912,7 @@
     <col min="4" max="5" width="11.875" style="127" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="93" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="93" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="93" customWidth="1"/>
     <col min="9" max="9" width="19.625" style="93" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="93" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.25" style="93" customWidth="1"/>
@@ -8050,7 +7954,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -8118,7 +8022,7 @@
         <v>177</v>
       </c>
       <c r="B14" s="107">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
@@ -8158,7 +8062,7 @@
       <c r="L15" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="O15" s="180" t="s">
+      <c r="O15" s="181" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8186,7 +8090,7 @@
         <v>200000</v>
       </c>
       <c r="I16" s="111" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J16" s="14">
         <v>1E-3</v>
@@ -8198,12 +8102,12 @@
         <v>20</v>
       </c>
       <c r="O16" s="13">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="106" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B17" s="106" t="s">
         <v>202</v>
@@ -8235,15 +8139,15 @@
         <v>20</v>
       </c>
       <c r="O17" s="13">
-        <v>100</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="106" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B18" s="106" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C18" s="107" t="s">
         <v>149</v>
@@ -8262,7 +8166,7 @@
         <v>0.02</v>
       </c>
       <c r="I18" s="111" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J18" s="111"/>
       <c r="K18" s="148" t="s">
@@ -8272,7 +8176,7 @@
         <v>20</v>
       </c>
       <c r="O18" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -8299,7 +8203,7 @@
         <v>1000000000</v>
       </c>
       <c r="I19" s="111" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J19" s="13">
         <f>0.000000001</f>
@@ -8312,14 +8216,48 @@
         <v>20</v>
       </c>
       <c r="O19" s="13">
-        <v>50000000</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O20" s="13"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C25" s="128"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="O20" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="O21" s="13">
+        <v>2000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="13"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C27" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8329,488 +8267,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:M17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.625" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.375" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="87" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="87" customWidth="1"/>
-    <col min="5" max="5" width="9" style="87"/>
-    <col min="6" max="6" width="11.625" style="87" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="87" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="87" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="87" customWidth="1"/>
-    <col min="10" max="12" width="9" style="87"/>
-    <col min="13" max="13" width="33.25" style="87" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="87"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="154" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="154" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="155" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="154" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="107"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="107"/>
-    </row>
-    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="151" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="151" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="152" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="152" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="152" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="152" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="152" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="I7" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7" s="153" t="s">
-        <v>172</v>
-      </c>
-      <c r="K7" s="153" t="s">
-        <v>197</v>
-      </c>
-      <c r="L7" s="153" t="s">
-        <v>207</v>
-      </c>
-      <c r="M7" s="153" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="152"/>
-      <c r="F8" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="111" t="s">
-        <v>336</v>
-      </c>
-      <c r="H8" s="14">
-        <v>1E-3</v>
-      </c>
-      <c r="I8" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="193" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="L8" s="153"/>
-      <c r="M8" s="106" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="154" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="154" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="155" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="155" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="145" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="156">
-        <v>1E-3</v>
-      </c>
-      <c r="I9" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="154" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="154" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="154" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="155" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="155" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="145" t="s">
-        <v>336</v>
-      </c>
-      <c r="H10" s="156">
-        <v>1E-3</v>
-      </c>
-      <c r="I10" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="154" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="106" t="s">
-        <v>329</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="155" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="152"/>
-      <c r="F11" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="150" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="150"/>
-      <c r="I11" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="193" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="153"/>
-      <c r="M11" s="106" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="154" t="s">
-        <v>330</v>
-      </c>
-      <c r="B12" s="154" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="155" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="155" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="158"/>
-      <c r="I12" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="154" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="154" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="154" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="155" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="155" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="158"/>
-      <c r="I13" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="154" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="106" t="s">
-        <v>323</v>
-      </c>
-      <c r="B14" s="106" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="107" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="155" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="152"/>
-      <c r="F14" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="111" t="s">
-        <v>336</v>
-      </c>
-      <c r="H14" s="111"/>
-      <c r="I14" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="193" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="153"/>
-      <c r="M14" s="106" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="192" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="106" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" s="154" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" s="155" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="155" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="145" t="s">
-        <v>336</v>
-      </c>
-      <c r="H15" s="145"/>
-      <c r="I15" s="157" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="L15" s="155" t="s">
-        <v>210</v>
-      </c>
-      <c r="M15" s="106" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="141" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="154" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="155" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="155" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="145" t="s">
-        <v>336</v>
-      </c>
-      <c r="H16" s="145"/>
-      <c r="I16" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="193" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="L16" s="153"/>
-      <c r="M16" s="106" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="141" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="155" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="111" t="s">
-        <v>336</v>
-      </c>
-      <c r="H17" s="13">
-        <f>0.000000001</f>
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="I17" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="193" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="L17" s="153"/>
-      <c r="M17" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8821,7 +8282,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="113"/>
     </row>
@@ -8949,7 +8410,7 @@
       <c r="A15" s="122">
         <v>11911.438316443378</v>
       </c>
-      <c r="B15" s="187">
+      <c r="B15" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8957,7 +8418,7 @@
       <c r="A16" s="122">
         <v>14660.231774084157</v>
       </c>
-      <c r="B16" s="187">
+      <c r="B16" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8965,7 +8426,7 @@
       <c r="A17" s="122">
         <v>17409.025231724936</v>
       </c>
-      <c r="B17" s="187">
+      <c r="B17" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8973,7 +8434,7 @@
       <c r="A18" s="122">
         <v>20157.818689365718</v>
       </c>
-      <c r="B18" s="187">
+      <c r="B18" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8981,7 +8442,7 @@
       <c r="A19" s="122">
         <v>22906.612147006497</v>
       </c>
-      <c r="B19" s="187">
+      <c r="B19" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8989,7 +8450,7 @@
       <c r="A20" s="122">
         <v>25655.405604647276</v>
       </c>
-      <c r="B20" s="187">
+      <c r="B20" s="188">
         <v>39</v>
       </c>
     </row>
@@ -8997,7 +8458,7 @@
       <c r="A21" s="122">
         <v>28404.199062288055</v>
       </c>
-      <c r="B21" s="187">
+      <c r="B21" s="188">
         <v>39</v>
       </c>
     </row>
@@ -9005,7 +8466,7 @@
       <c r="A22" s="122">
         <v>31152.992519928837</v>
       </c>
-      <c r="B22" s="187">
+      <c r="B22" s="188">
         <v>39</v>
       </c>
     </row>
@@ -9013,17 +8474,16 @@
       <c r="A23" s="122">
         <v>45813.224294012995</v>
       </c>
-      <c r="B23" s="187">
+      <c r="B23" s="188">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15">
     <tabColor rgb="FFFF0000"/>
@@ -9047,17 +8507,17 @@
       <c r="A1" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="195"/>
+      <c r="C1" s="196"/>
       <c r="D1" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="194" t="s">
+      <c r="E1" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="195"/>
+      <c r="F1" s="196"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="95" t="s">
@@ -9134,7 +8594,7 @@
       <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="174">
+      <c r="A5" s="175">
         <v>1862.13</v>
       </c>
       <c r="B5" s="75">
@@ -9162,7 +8622,7 @@
       <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="174">
+      <c r="A6" s="175">
         <v>2466.96</v>
       </c>
       <c r="B6" s="75">
@@ -9190,7 +8650,7 @@
       <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="174">
+      <c r="A7" s="175">
         <v>2674.1400000000003</v>
       </c>
       <c r="B7" s="75">
@@ -9218,7 +8678,7 @@
       <c r="L7" s="93"/>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="174">
+      <c r="A8" s="175">
         <v>3250.9799999999996</v>
       </c>
       <c r="B8" s="75">
@@ -9246,7 +8706,7 @@
       <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="174">
+      <c r="A9" s="175">
         <v>2616.9599999999991</v>
       </c>
       <c r="B9" s="75">
@@ -9274,7 +8734,7 @@
       <c r="L9" s="93"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="174">
+      <c r="A10" s="175">
         <v>4422.9699999999993</v>
       </c>
       <c r="B10" s="75">
@@ -9302,7 +8762,7 @@
       <c r="L10" s="93"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="174">
+      <c r="A11" s="175">
         <v>4570.82</v>
       </c>
       <c r="B11" s="75">
@@ -9330,7 +8790,7 @@
       <c r="L11" s="93"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="174">
+      <c r="A12" s="175">
         <v>7021.27</v>
       </c>
       <c r="B12" s="75">
@@ -9358,7 +8818,7 @@
       <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="174">
+      <c r="A13" s="175">
         <v>9863.68</v>
       </c>
       <c r="B13" s="75">
@@ -9386,7 +8846,7 @@
       <c r="L13" s="93"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="174">
+      <c r="A14" s="175">
         <v>13416.68</v>
       </c>
       <c r="B14" s="75">
@@ -9414,7 +8874,7 @@
       <c r="L14" s="93"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="174">
+      <c r="A15" s="175">
         <v>16761.400000000001</v>
       </c>
       <c r="B15" s="75">
@@ -9442,7 +8902,7 @@
       <c r="L15" s="93"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="174">
+      <c r="A16" s="175">
         <v>18113.490000000002</v>
       </c>
       <c r="B16" s="75">
@@ -9470,7 +8930,7 @@
       <c r="L16" s="93"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="174">
+      <c r="A17" s="175">
         <v>19748.93</v>
       </c>
       <c r="B17" s="75">
@@ -9498,7 +8958,7 @@
       <c r="L17" s="93"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="174">
+      <c r="A18" s="175">
         <v>21384.369999999995</v>
       </c>
       <c r="B18" s="75">
@@ -9526,7 +8986,7 @@
       <c r="L18" s="99"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="174">
+      <c r="A19" s="175">
         <v>23019.809999999998</v>
       </c>
       <c r="B19" s="75">
@@ -9763,13 +9223,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9795,7 +9255,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="126" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D2" s="132" t="s">
         <v>109</v>
@@ -11861,16 +11321,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11881,7 +11339,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -11993,7 +11451,7 @@
       <c r="A12" s="122">
         <v>11000</v>
       </c>
-      <c r="B12" s="184">
+      <c r="B12" s="185">
         <v>38.700000000000003</v>
       </c>
     </row>
@@ -12001,7 +11459,7 @@
       <c r="A13" s="122">
         <v>12000</v>
       </c>
-      <c r="B13" s="184">
+      <c r="B13" s="185">
         <v>40.4</v>
       </c>
     </row>
@@ -12018,11 +11476,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -12094,16 +11552,16 @@
       <c r="A5" s="155" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="161" t="s">
+      <c r="D5" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="161" t="s">
+      <c r="E5" s="162" t="s">
         <v>317</v>
       </c>
     </row>
@@ -12111,16 +11569,16 @@
       <c r="A6" s="155" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="179" t="s">
+      <c r="B6" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="179" t="s">
+      <c r="C6" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="179" t="s">
+      <c r="D6" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="E6" s="179" t="s">
+      <c r="E6" s="180" t="s">
         <v>273</v>
       </c>
     </row>
@@ -12160,7 +11618,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="161" t="s">
         <v>275</v>
       </c>
       <c r="B8" s="48"/>
@@ -12178,7 +11636,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="161" t="s">
         <v>276</v>
       </c>
       <c r="B9" s="48" t="s">
@@ -12193,18 +11651,18 @@
       <c r="E9" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="163" t="s">
+      <c r="F9" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="163" t="s">
+      <c r="G9" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="163" t="s">
+      <c r="H9" s="164" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="161" t="s">
         <v>280</v>
       </c>
       <c r="B10" s="48" t="s">
@@ -12224,7 +11682,7 @@
       <c r="H10" s="142"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="161" t="s">
         <v>278</v>
       </c>
       <c r="B11" s="35" t="s">
@@ -12250,16 +11708,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B13" s="155" t="s">
@@ -12276,7 +11734,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B14" s="48">
@@ -12294,7 +11752,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="155" t="s">
@@ -12314,7 +11772,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B16" s="155" t="s">
@@ -12334,67 +11792,67 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="166" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="166" t="s">
+      <c r="B17" s="167" t="s">
         <v>277</v>
       </c>
-      <c r="C17" s="166" t="s">
+      <c r="C17" s="167" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="166" t="s">
+      <c r="D17" s="167" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="181" t="s">
+      <c r="E17" s="182" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="177" t="s">
+      <c r="A18" s="178" t="s">
         <v>222</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="177" t="s">
         <v>304</v>
       </c>
-      <c r="C18" s="176" t="s">
+      <c r="C18" s="177" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="176" t="s">
+      <c r="D18" s="177" t="s">
         <v>303</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="177" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="178" t="s">
+      <c r="A19" s="179" t="s">
         <v>308</v>
       </c>
-      <c r="B19" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="179" t="s">
+      <c r="B19" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="180" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="163" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="155" t="s">
@@ -12411,7 +11869,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="165" t="s">
+      <c r="A22" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B22" s="156">
@@ -12428,7 +11886,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B23" s="155" t="s">
@@ -12445,7 +11903,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="165" t="s">
+      <c r="A24" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="155" t="s">
@@ -12462,24 +11920,24 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="165" t="s">
+      <c r="A25" s="166" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="166" t="s">
+      <c r="B25" s="167" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="166" t="s">
+      <c r="C25" s="167" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="166" t="s">
+      <c r="D25" s="167" t="s">
         <v>313</v>
       </c>
-      <c r="E25" s="166" t="s">
+      <c r="E25" s="167" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="177" t="s">
+      <c r="A26" s="178" t="s">
         <v>222</v>
       </c>
       <c r="B26" s="155" t="s">
@@ -12496,33 +11954,33 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="178" t="s">
+      <c r="A27" s="179" t="s">
         <v>308</v>
       </c>
-      <c r="B27" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="179" t="s">
+      <c r="B27" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="180" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="162" t="s">
+      <c r="A28" s="163" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B29" s="155" t="s">
@@ -12539,7 +11997,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B30" s="48">
@@ -12556,7 +12014,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B31" s="155" t="s">
@@ -12573,7 +12031,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="165" t="s">
+      <c r="A32" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B32" s="155" t="s">
@@ -12590,18 +12048,18 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="165" t="s">
+      <c r="A33" s="166" t="s">
         <v>269</v>
       </c>
-      <c r="F33" s="171" t="s">
+      <c r="F33" s="172" t="s">
         <v>270</v>
       </c>
-      <c r="G33" s="171" t="s">
+      <c r="G33" s="172" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="178" t="s">
         <v>222</v>
       </c>
       <c r="B34" s="155" t="s">
@@ -12618,212 +12076,212 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="178" t="s">
+      <c r="A35" s="179" t="s">
         <v>308</v>
       </c>
-      <c r="B35" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="179" t="s">
+      <c r="B35" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="180" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="161" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="161" t="s">
+      <c r="B36" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="C36" s="161" t="s">
+      <c r="C36" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="161" t="s">
+      <c r="D36" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="E36" s="161" t="s">
+      <c r="E36" s="162" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="162" t="s">
+      <c r="A37" s="163" t="s">
         <v>229</v>
       </c>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="163"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="164" t="s">
+      <c r="A38" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="164"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="165" t="s">
+      <c r="A39" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="165" t="s">
+      <c r="A40" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="165"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="165" t="s">
+      <c r="A41" s="166" t="s">
         <v>172</v>
       </c>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="165" t="s">
+      <c r="A42" s="166" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="165" t="s">
+      <c r="A43" s="166" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="179" t="s">
         <v>308</v>
       </c>
-      <c r="B44" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="163"/>
+      <c r="B44" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="164"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="163" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
       <c r="G45" s="141"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="164" t="s">
+      <c r="A46" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="164"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="157"/>
       <c r="F46" s="48"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="165" t="s">
+      <c r="A47" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="165" t="s">
+      <c r="A48" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
       <c r="E48" s="155"/>
       <c r="F48" s="48"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="165" t="s">
+      <c r="A49" s="166" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
       <c r="E49" s="155"/>
       <c r="F49" s="48"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="165" t="s">
+      <c r="A50" s="166" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
       <c r="E50" s="155"/>
       <c r="F50" s="48"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="165" t="s">
+      <c r="A51" s="166" t="s">
         <v>222</v>
       </c>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="166"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="166"/>
       <c r="E51" s="155"/>
       <c r="F51" s="48"/>
     </row>
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="178" t="s">
+      <c r="A52" s="179" t="s">
         <v>308</v>
       </c>
-      <c r="B52" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="179" t="s">
+      <c r="B52" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="180" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12833,285 +12291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="1.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="10">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29">
-        <v>5</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29">
-        <v>6</v>
-      </c>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="10">
-        <v>5</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="10">
-        <v>6</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="10">
-        <v>7</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:6" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="94">
-        <v>8</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="10">
-        <v>9</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="E17" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="100">
-        <v>10</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="E20" s="94">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="94">
-        <v>11</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="C25" s="21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:V51"/>
@@ -13140,7 +12320,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>232</v>
       </c>
       <c r="B1" s="35">
@@ -13157,49 +12337,49 @@
       <c r="M1" s="155"/>
       <c r="N1" s="155"/>
       <c r="O1" s="155"/>
-      <c r="P1" s="167"/>
+      <c r="P1" s="168"/>
       <c r="R1" s="48"/>
       <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="160" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="170" t="s">
         <v>261</v>
       </c>
       <c r="C2" s="155" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="170" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="169" t="s">
+      <c r="E2" s="170" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="170" t="s">
         <v>260</v>
       </c>
-      <c r="H2" s="169" t="s">
+      <c r="H2" s="170" t="s">
         <v>262</v>
       </c>
       <c r="I2" s="155"/>
-      <c r="J2" s="169" t="s">
+      <c r="J2" s="170" t="s">
         <v>258</v>
       </c>
-      <c r="K2" s="169" t="s">
+      <c r="K2" s="170" t="s">
         <v>267</v>
       </c>
-      <c r="L2" s="169" t="s">
+      <c r="L2" s="170" t="s">
         <v>266</v>
       </c>
-      <c r="M2" s="169" t="s">
+      <c r="M2" s="170" t="s">
         <v>260</v>
       </c>
-      <c r="N2" s="169" t="s">
+      <c r="N2" s="170" t="s">
         <v>261</v>
       </c>
-      <c r="O2" s="169" t="s">
+      <c r="O2" s="170" t="s">
         <v>262</v>
       </c>
       <c r="Q2" s="155" t="s">
@@ -13213,7 +12393,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="160" t="s">
         <v>233</v>
       </c>
       <c r="B3" s="155">
@@ -13264,7 +12444,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="160" t="s">
         <v>219</v>
       </c>
       <c r="B4" s="155" t="s">
@@ -13315,7 +12495,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="160" t="s">
         <v>244</v>
       </c>
       <c r="B5" s="155">
@@ -13366,7 +12546,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="160" t="s">
         <v>268</v>
       </c>
       <c r="B6" s="155" t="s">
@@ -13384,50 +12564,50 @@
       <c r="F6" s="155" t="s">
         <v>282</v>
       </c>
-      <c r="H6" s="161" t="s">
+      <c r="H6" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161" t="s">
+      <c r="I6" s="162"/>
+      <c r="J6" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="K6" s="161" t="s">
+      <c r="K6" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="L6" s="161" t="s">
+      <c r="L6" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="M6" s="161" t="s">
+      <c r="M6" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="N6" s="161" t="s">
+      <c r="N6" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="O6" s="161" t="s">
+      <c r="O6" s="162" t="s">
         <v>282</v>
       </c>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
-      <c r="S6" s="161"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
     </row>
     <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="183" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="176" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="176" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="176" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="176" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" s="176" t="s">
-        <v>301</v>
+      <c r="B7" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="177" t="s">
+        <v>334</v>
       </c>
       <c r="H7" s="155" t="s">
         <v>301</v>
@@ -13451,95 +12631,95 @@
       <c r="O7" s="155" t="s">
         <v>301</v>
       </c>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="184" t="s">
         <v>316</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="D8" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="D8" s="161" t="s">
+      <c r="E8" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="E8" s="161" t="s">
+      <c r="F8" s="162" t="s">
         <v>317</v>
       </c>
-      <c r="F8" s="161" t="s">
-        <v>317</v>
-      </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="161"/>
-      <c r="S8" s="161"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="184" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="179" t="s">
+      <c r="D9" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="179" t="s">
+      <c r="E9" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="E9" s="179" t="s">
+      <c r="F9" s="180" t="s">
         <v>273</v>
       </c>
-      <c r="F9" s="179" t="s">
-        <v>273</v>
-      </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="163" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="163"/>
-      <c r="S10" s="163"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B11" s="155" t="s">
@@ -13590,7 +12770,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B12" s="156">
@@ -13641,7 +12821,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="155" t="s">
@@ -13692,7 +12872,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="155" t="s">
@@ -13743,36 +12923,36 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="166" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="166"/>
-      <c r="D15" s="166" t="s">
+      <c r="B15" s="167"/>
+      <c r="D15" s="167" t="s">
         <v>288</v>
       </c>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166" t="s">
+      <c r="E15" s="167"/>
+      <c r="F15" s="167" t="s">
         <v>287</v>
       </c>
-      <c r="H15" s="166" t="s">
+      <c r="H15" s="167" t="s">
         <v>289</v>
       </c>
-      <c r="I15" s="166"/>
+      <c r="I15" s="167"/>
       <c r="J15" s="155"/>
       <c r="K15" s="155"/>
       <c r="L15" s="155"/>
       <c r="M15" s="155"/>
       <c r="N15" s="155"/>
       <c r="O15" s="155"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166" t="s">
+      <c r="Q15" s="167"/>
+      <c r="R15" s="167" t="s">
         <v>247</v>
       </c>
-      <c r="S15" s="166"/>
-      <c r="V15" s="167"/>
+      <c r="S15" s="167"/>
+      <c r="V15" s="168"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="178" t="s">
         <v>222</v>
       </c>
       <c r="B16" s="155" t="s">
@@ -13823,22 +13003,22 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="163" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="164"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="164" t="s">
+      <c r="A18" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B18" s="155" t="s">
@@ -13889,7 +13069,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B19" s="48">
@@ -13940,7 +13120,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B20" s="155" t="s">
@@ -13991,7 +13171,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="165" t="s">
+      <c r="A21" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B21" s="155" t="s">
@@ -14042,47 +13222,47 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="165" t="s">
+      <c r="A22" s="166" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="167" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="H22" s="166" t="s">
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="H22" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="I22" s="166"/>
+      <c r="I22" s="167"/>
       <c r="J22" s="155"/>
       <c r="K22" s="155"/>
       <c r="L22" s="155"/>
       <c r="M22" s="155"/>
       <c r="N22" s="155"/>
       <c r="O22" s="155"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="166" t="s">
+      <c r="Q22" s="167"/>
+      <c r="R22" s="167" t="s">
         <v>246</v>
       </c>
-      <c r="S22" s="166"/>
+      <c r="S22" s="167"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="178" t="s">
         <v>222</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="C23" s="176" t="s">
+      <c r="C23" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D23" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="E23" s="176" t="s">
+      <c r="E23" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="F23" s="176" t="s">
+      <c r="F23" s="177" t="s">
         <v>297</v>
       </c>
       <c r="H23" s="155" t="s">
@@ -14118,22 +13298,22 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="162" t="s">
+      <c r="A24" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="175"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B25" s="107" t="s">
@@ -14184,7 +13364,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="165" t="s">
+      <c r="A26" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B26" s="48">
@@ -14235,7 +13415,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -14286,7 +13466,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B28" s="48" t="s">
@@ -14337,7 +13517,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="166" t="s">
         <v>243</v>
       </c>
       <c r="B29" s="155"/>
@@ -14346,31 +13526,31 @@
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
       <c r="H29" s="155"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166" t="s">
+      <c r="I29" s="167"/>
+      <c r="J29" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166" t="s">
+      <c r="K29" s="167"/>
+      <c r="L29" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166" t="s">
+      <c r="M29" s="167"/>
+      <c r="N29" s="167" t="s">
         <v>265</v>
       </c>
-      <c r="O29" s="166" t="s">
+      <c r="O29" s="167" t="s">
         <v>253</v>
       </c>
-      <c r="Q29" s="166"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="167"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="177" t="s">
+      <c r="A30" s="178" t="s">
         <v>222</v>
       </c>
       <c r="B30" s="155" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="C30" s="155" t="s">
         <v>298</v>
@@ -14417,22 +13597,22 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="163" t="s">
         <v>236</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="164"/>
+      <c r="S31" s="164"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B32" s="107" t="s">
@@ -14483,7 +13663,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="165" t="s">
+      <c r="A33" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B33" s="48">
@@ -14534,7 +13714,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="165" t="s">
+      <c r="A34" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -14585,7 +13765,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="165" t="s">
+      <c r="A35" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B35" s="48" t="s">
@@ -14636,32 +13816,32 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="165" t="s">
+      <c r="A36" s="166" t="s">
         <v>243</v>
       </c>
-      <c r="D36" s="166" t="s">
+      <c r="D36" s="167" t="s">
         <v>293</v>
       </c>
-      <c r="E36" s="166" t="s">
+      <c r="E36" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="F36" s="166"/>
-      <c r="H36" s="166" t="s">
+      <c r="F36" s="167"/>
+      <c r="H36" s="167" t="s">
         <v>290</v>
       </c>
-      <c r="I36" s="166"/>
-      <c r="J36" s="166" t="s">
+      <c r="I36" s="167"/>
+      <c r="J36" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="K36" s="166"/>
-      <c r="L36" s="166" t="s">
+      <c r="K36" s="167"/>
+      <c r="L36" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="M36" s="166"/>
-      <c r="N36" s="166" t="s">
+      <c r="M36" s="167"/>
+      <c r="N36" s="167" t="s">
         <v>264</v>
       </c>
-      <c r="O36" s="166" t="s">
+      <c r="O36" s="167" t="s">
         <v>252</v>
       </c>
       <c r="Q36" s="155"/>
@@ -14669,22 +13849,22 @@
       <c r="S36" s="155"/>
     </row>
     <row r="37" spans="1:22" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="177" t="s">
+      <c r="A37" s="178" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="177" t="s">
         <v>299</v>
       </c>
-      <c r="C37" s="176" t="s">
+      <c r="C37" s="177" t="s">
         <v>299</v>
       </c>
-      <c r="D37" s="176" t="s">
+      <c r="D37" s="177" t="s">
         <v>299</v>
       </c>
-      <c r="E37" s="176" t="s">
+      <c r="E37" s="177" t="s">
         <v>299</v>
       </c>
-      <c r="F37" s="176" t="s">
+      <c r="F37" s="177" t="s">
         <v>299</v>
       </c>
       <c r="H37" s="155" t="s">
@@ -14720,22 +13900,22 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="162" t="s">
+      <c r="A38" s="163" t="s">
         <v>237</v>
       </c>
-      <c r="B38" s="175"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="Q38" s="163"/>
-      <c r="R38" s="163"/>
-      <c r="S38" s="163"/>
+      <c r="B38" s="176"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="H38" s="176"/>
+      <c r="I38" s="176"/>
+      <c r="Q38" s="164"/>
+      <c r="R38" s="164"/>
+      <c r="S38" s="164"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="164" t="s">
+      <c r="A39" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B39" s="107" t="s">
@@ -14786,7 +13966,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="165" t="s">
+      <c r="A40" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B40" s="156">
@@ -14837,7 +14017,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="165" t="s">
+      <c r="A41" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -14888,7 +14068,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="165" t="s">
+      <c r="A42" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B42" s="48" t="s">
@@ -14939,7 +14119,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="165" t="s">
+      <c r="A43" s="166" t="s">
         <v>243</v>
       </c>
       <c r="B43" s="155"/>
@@ -14948,28 +14128,28 @@
       <c r="E43" s="155"/>
       <c r="F43" s="155"/>
       <c r="H43" s="155"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="166"/>
-      <c r="K43" s="166"/>
-      <c r="L43" s="166"/>
-      <c r="M43" s="166" t="s">
+      <c r="I43" s="167"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="167"/>
+      <c r="L43" s="167"/>
+      <c r="M43" s="167" t="s">
         <v>263</v>
       </c>
-      <c r="N43" s="166" t="s">
+      <c r="N43" s="167" t="s">
         <v>246</v>
       </c>
-      <c r="O43" s="166" t="s">
+      <c r="O43" s="167" t="s">
         <v>254</v>
       </c>
-      <c r="Q43" s="166"/>
-      <c r="R43" s="166" t="s">
+      <c r="Q43" s="167"/>
+      <c r="R43" s="167" t="s">
         <v>248</v>
       </c>
       <c r="S43" s="155"/>
-      <c r="V43" s="168"/>
+      <c r="V43" s="169"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="178" t="s">
         <v>222</v>
       </c>
       <c r="B44" s="155" t="s">
@@ -15020,22 +14200,22 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="163" t="s">
         <v>238</v>
       </c>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="Q45" s="163"/>
-      <c r="R45" s="163"/>
-      <c r="S45" s="163"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+      <c r="Q45" s="164"/>
+      <c r="R45" s="164"/>
+      <c r="S45" s="164"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="164" t="s">
+      <c r="A46" s="165" t="s">
         <v>156</v>
       </c>
       <c r="B46" s="148" t="s">
@@ -15086,7 +14266,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="165" t="s">
+      <c r="A47" s="166" t="s">
         <v>170</v>
       </c>
       <c r="B47" s="13">
@@ -15152,7 +14332,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="165" t="s">
+      <c r="A48" s="166" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="155" t="s">
@@ -15203,7 +14383,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="165" t="s">
+      <c r="A49" s="166" t="s">
         <v>172</v>
       </c>
       <c r="B49" s="155" t="s">
@@ -15254,43 +14434,43 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="165" t="s">
+      <c r="A50" s="166" t="s">
         <v>243</v>
       </c>
-      <c r="B50" s="166"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="H50" s="166"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="166"/>
-      <c r="K50" s="166"/>
-      <c r="L50" s="166"/>
-      <c r="M50" s="166"/>
-      <c r="N50" s="166"/>
-      <c r="O50" s="166"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="H50" s="167"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="167"/>
+      <c r="K50" s="167"/>
+      <c r="L50" s="167"/>
+      <c r="M50" s="167"/>
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
       <c r="Q50" s="155"/>
       <c r="R50" s="155"/>
-      <c r="S50" s="166"/>
+      <c r="S50" s="167"/>
     </row>
     <row r="51" spans="1:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="A51" s="177" t="s">
+      <c r="A51" s="178" t="s">
         <v>222</v>
       </c>
-      <c r="B51" s="176" t="s">
+      <c r="B51" s="177" t="s">
         <v>312</v>
       </c>
-      <c r="C51" s="176" t="s">
+      <c r="C51" s="177" t="s">
         <v>312</v>
       </c>
-      <c r="D51" s="176" t="s">
+      <c r="D51" s="177" t="s">
         <v>312</v>
       </c>
-      <c r="E51" s="176" t="s">
+      <c r="E51" s="177" t="s">
         <v>312</v>
       </c>
-      <c r="F51" s="176" t="s">
+      <c r="F51" s="177" t="s">
         <v>312</v>
       </c>
       <c r="H51" s="148" t="s">
@@ -15331,12 +14511,290 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4">
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="1.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="10">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29">
+        <v>5</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29">
+        <v>6</v>
+      </c>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10">
+        <v>6</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="94">
+        <v>8</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="10">
+        <v>9</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="E17" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="100">
+        <v>10</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="E20" s="94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="94">
+        <v>11</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="C25" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15357,19 +14815,495 @@
         <v>126</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="186" t="s">
         <v>319</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="87" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="87" customWidth="1"/>
+    <col min="5" max="5" width="9" style="87"/>
+    <col min="6" max="6" width="11.625" style="87" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="87" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="87" customWidth="1"/>
+    <col min="10" max="12" width="9" style="87"/>
+    <col min="13" max="13" width="33.25" style="87" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="160" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="154" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="154" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="155"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="154" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="155"/>
+    </row>
+    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="151" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="151" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="153" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="153" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="153" t="s">
+        <v>207</v>
+      </c>
+      <c r="M7" s="153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="152"/>
+      <c r="F8" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="I8" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L8" s="153"/>
+      <c r="M8" s="154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="154" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="154" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="I9" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" s="48"/>
+      <c r="M9" s="154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="154" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="156">
+        <v>1E-3</v>
+      </c>
+      <c r="I10" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="M10" s="154" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="154" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="152"/>
+      <c r="F11" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="158"/>
+      <c r="I11" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="153"/>
+      <c r="M11" s="154" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="154" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="154" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="158"/>
+      <c r="I12" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" s="48"/>
+      <c r="M12" s="154" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="154" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="154" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="158" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="158"/>
+      <c r="I13" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="154" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="154" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="154" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="152"/>
+      <c r="F14" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H14" s="145"/>
+      <c r="I14" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="153"/>
+      <c r="M14" s="154" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="194" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="154" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="154" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H15" s="145"/>
+      <c r="I15" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" s="155" t="s">
+        <v>210</v>
+      </c>
+      <c r="M15" s="154" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="141" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="154" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" s="154" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" s="145"/>
+      <c r="I16" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L16" s="153"/>
+      <c r="M16" s="154" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="141" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="159" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="154" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="152"/>
+      <c r="F17" s="155" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H17" s="48">
+        <f>0.000000001</f>
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="I17" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="153"/>
+      <c r="M17" s="159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15381,7 +15315,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15416,15 +15350,15 @@
       <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="190" t="s">
         <v>318</v>
       </c>
       <c r="B2" s="42">
         <f>76800000000</f>
         <v>76800000000</v>
       </c>
-      <c r="C2" s="190">
-        <v>3.595022937357871E-7</v>
+      <c r="C2" s="191">
+        <v>3.5950229373578699E-7</v>
       </c>
       <c r="D2" s="107">
         <v>1.2759</v>
@@ -15454,7 +15388,7 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -15630,7 +15564,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B5" s="13">
         <v>2.0000000000000002E-5</v>
@@ -15690,7 +15624,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -16180,7 +16114,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B2" s="13">
         <v>130.19999999999999</v>
@@ -16237,9 +16171,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16248,7 +16180,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -16306,7 +16238,7 @@
       <c r="A5" s="88">
         <v>20</v>
       </c>
-      <c r="B5" s="186">
+      <c r="B5" s="187">
         <v>12000</v>
       </c>
       <c r="C5">
@@ -16326,7 +16258,7 @@
       <c r="A6" s="88">
         <v>39</v>
       </c>
-      <c r="B6" s="172">
+      <c r="B6" s="173">
         <v>12000</v>
       </c>
       <c r="C6">
@@ -16346,7 +16278,7 @@
       <c r="A7" s="88">
         <v>40</v>
       </c>
-      <c r="B7" s="186">
+      <c r="B7" s="187">
         <v>12000</v>
       </c>
       <c r="E7">
@@ -16370,8 +16302,8 @@
   <dimension ref="A1:Y103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16476,7 +16408,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B2" s="59">
         <v>39</v>
@@ -16487,7 +16419,7 @@
       <c r="D2" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="174" t="s">
         <v>183</v>
       </c>
       <c r="F2" s="59">
@@ -16496,8 +16428,8 @@
       <c r="G2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="188" t="s">
-        <v>320</v>
+      <c r="H2" s="192" t="s">
+        <v>322</v>
       </c>
       <c r="I2" s="62"/>
       <c r="K2" s="59">
@@ -17702,8 +17634,8 @@
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17729,7 +17661,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>

--- a/example/formulation_2/input/PySedSim_Input_File - Sambor_EA_formulation_2_serial.xlsx
+++ b/example/formulation_2/input/PySedSim_Input_File - Sambor_EA_formulation_2_serial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2040" windowWidth="7140" windowHeight="3525" tabRatio="848" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="4860" yWindow="2040" windowWidth="7140" windowHeight="3525" tabRatio="848" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation Specifications" sheetId="54" r:id="rId1"/>
@@ -7387,7 +7387,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7426,7 +7426,6 @@
       <c r="B4" s="53">
         <v>38716</v>
       </c>
-      <c r="C4" s="79"/>
       <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7442,7 +7441,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="83">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7901,7 +7900,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7964,6 +7963,7 @@
       <c r="B6" s="48">
         <v>25000</v>
       </c>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="109" t="s">
